--- a/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2020-21.xlsx
+++ b/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2020-21.xlsx
@@ -1819,42 +1819,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>51.8%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -1884,42 +1884,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>51.8%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -2664,22 +2664,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kendrick Nunn</t>
+          <t>Romeo Langford</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Romeo Langford</t>
+          <t>Kendrick Nunn</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>54.2%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-8.7</t>
         </is>
       </c>
     </row>
@@ -3119,42 +3119,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,17 +3164,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>17.5</t>
         </is>
       </c>
     </row>
@@ -3184,42 +3184,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>47.0%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -3249,42 +3249,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -3314,42 +3314,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>47.0%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>9.7</t>
         </is>
       </c>
     </row>
@@ -3379,42 +3379,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>34.2%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -3574,42 +3574,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>42.7%</t>
+          <t>48.6%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -3639,42 +3639,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>48.6%</t>
+          <t>42.7%</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -4224,22 +4224,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>41.5%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -4289,22 +4289,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>52.4%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -4744,42 +4744,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-9.9</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,22 +4829,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>28.3</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -4874,42 +4874,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>47.1%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -4939,42 +4939,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>37.3%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-13.0</t>
         </is>
       </c>
     </row>
@@ -5394,42 +5394,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>55.8%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -5459,42 +5459,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -5524,42 +5524,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>55.8%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -6109,22 +6109,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>55.1%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -6174,17 +6174,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Carmelo Anthony</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6194,22 +6194,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>55.1%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>29.6</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -6239,17 +6239,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6259,22 +6259,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -6304,42 +6304,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -6434,22 +6434,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Enes Freedom</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -6499,22 +6499,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Enes Freedom</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>14.6</t>
         </is>
       </c>
     </row>
@@ -6694,17 +6694,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6719,17 +6719,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>56.8%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6779,17 +6779,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -6824,42 +6824,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -6889,22 +6889,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6914,17 +6914,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -7734,17 +7734,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7754,22 +7754,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>38.2%</t>
+          <t>44.3%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -7799,17 +7799,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7819,22 +7819,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>44.3%</t>
+          <t>38.2%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -14884,22 +14884,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Skylar Mays</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -14919,27 +14919,27 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -14949,22 +14949,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Skylar Mays</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -14994,17 +14994,17 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>67.6</t>
         </is>
       </c>
     </row>
